--- a/Code/Results/Cases/Case_9_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52302126839403</v>
+        <v>20.68481515872179</v>
       </c>
       <c r="C2">
-        <v>13.94772653903968</v>
+        <v>14.43781474671933</v>
       </c>
       <c r="D2">
-        <v>4.316132963560087</v>
+        <v>4.32354422360368</v>
       </c>
       <c r="E2">
-        <v>8.221996273192682</v>
+        <v>8.125894522971059</v>
       </c>
       <c r="F2">
-        <v>27.04511059224904</v>
+        <v>25.46034833851672</v>
       </c>
       <c r="G2">
-        <v>38.68956721906409</v>
+        <v>35.40500965644443</v>
       </c>
       <c r="H2">
-        <v>2.186987375953592</v>
+        <v>2.117294456855419</v>
       </c>
       <c r="I2">
-        <v>2.820581939478722</v>
+        <v>2.728746073776975</v>
       </c>
       <c r="J2">
-        <v>12.09838979357425</v>
+        <v>11.89625328735324</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.9384407330677</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.94761152639323</v>
       </c>
       <c r="N2">
-        <v>6.551124482006195</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.08108957419085</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.99737059377728</v>
+        <v>6.719364792226069</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.81554924480968</v>
+      </c>
+      <c r="R2">
+        <v>12.80375853318638</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.14595152285963</v>
+        <v>19.38789627577668</v>
       </c>
       <c r="C3">
-        <v>13.20585518918468</v>
+        <v>13.59244615305086</v>
       </c>
       <c r="D3">
-        <v>4.28753271342038</v>
+        <v>4.266605413544383</v>
       </c>
       <c r="E3">
-        <v>8.04860052187658</v>
+        <v>7.975269593508777</v>
       </c>
       <c r="F3">
-        <v>26.01551145419346</v>
+        <v>24.58386185580976</v>
       </c>
       <c r="G3">
-        <v>37.050058654687</v>
+        <v>34.05269663949117</v>
       </c>
       <c r="H3">
-        <v>2.430758704920631</v>
+        <v>2.336372870492675</v>
       </c>
       <c r="I3">
-        <v>3.039332731487356</v>
+        <v>2.917346246092381</v>
       </c>
       <c r="J3">
-        <v>11.87128730988189</v>
+        <v>11.68997704512206</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.93691789917159</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.68593905369307</v>
       </c>
       <c r="N3">
-        <v>6.365089643069524</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.45969952569969</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.15245117098868</v>
+        <v>6.538127480203909</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.21831702403578</v>
+      </c>
+      <c r="R3">
+        <v>12.94749249769292</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.25085099614521</v>
+        <v>18.54322642969649</v>
       </c>
       <c r="C4">
-        <v>12.73149893313045</v>
+        <v>13.05042020470863</v>
       </c>
       <c r="D4">
-        <v>4.269058315915599</v>
+        <v>4.23075902288957</v>
       </c>
       <c r="E4">
-        <v>7.938874133740057</v>
+        <v>7.879975322500007</v>
       </c>
       <c r="F4">
-        <v>25.37209691109266</v>
+        <v>24.03584142948435</v>
       </c>
       <c r="G4">
-        <v>36.01839236861239</v>
+        <v>33.20570478656112</v>
       </c>
       <c r="H4">
-        <v>2.585460855056204</v>
+        <v>2.475549624165567</v>
       </c>
       <c r="I4">
-        <v>3.178984402467586</v>
+        <v>3.038210819107463</v>
       </c>
       <c r="J4">
-        <v>11.7331386568682</v>
+        <v>11.56167854487961</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.93179468200806</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.54336739500787</v>
       </c>
       <c r="N4">
-        <v>6.248057525972221</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12.06263326328401</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.24859055237634</v>
+        <v>6.424472506664062</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.83621019690915</v>
+      </c>
+      <c r="R4">
+        <v>13.03719153165047</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.86621656969441</v>
+        <v>18.1797409836743</v>
       </c>
       <c r="C5">
-        <v>12.53995998656667</v>
+        <v>12.83051489049203</v>
       </c>
       <c r="D5">
-        <v>4.261688295629909</v>
+        <v>4.216572039860388</v>
       </c>
       <c r="E5">
-        <v>7.892646238437251</v>
+        <v>7.839882230644521</v>
       </c>
       <c r="F5">
-        <v>25.09454746442585</v>
+        <v>23.79810469477307</v>
       </c>
       <c r="G5">
-        <v>35.56890048757871</v>
+        <v>32.83454617693101</v>
       </c>
       <c r="H5">
-        <v>2.650251240162031</v>
+        <v>2.533879063834281</v>
       </c>
       <c r="I5">
-        <v>3.240176444860379</v>
+        <v>3.092125261600177</v>
       </c>
       <c r="J5">
-        <v>11.6727240807506</v>
+        <v>11.50481125381782</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.92104446343872</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.48394291806071</v>
       </c>
       <c r="N5">
-        <v>6.200220847861992</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.89490663521383</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.28706492794571</v>
+        <v>6.37810809212937</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.67470175938528</v>
+      </c>
+      <c r="R5">
+        <v>13.07360490168131</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.79246828163427</v>
+        <v>18.1099132652658</v>
       </c>
       <c r="C6">
-        <v>12.51577095446198</v>
+        <v>12.80183039350937</v>
       </c>
       <c r="D6">
-        <v>4.260931859382498</v>
+        <v>4.214994010001399</v>
       </c>
       <c r="E6">
-        <v>7.884104525963319</v>
+        <v>7.832532529452747</v>
       </c>
       <c r="F6">
-        <v>25.03257732619845</v>
+        <v>23.74358646511555</v>
       </c>
       <c r="G6">
-        <v>35.46540253189019</v>
+        <v>32.74554155334221</v>
       </c>
       <c r="H6">
-        <v>2.661648957837698</v>
+        <v>2.544151614711234</v>
       </c>
       <c r="I6">
-        <v>3.254170978141703</v>
+        <v>3.105506738007414</v>
       </c>
       <c r="J6">
-        <v>11.65723378447745</v>
+        <v>11.49020124771086</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.90991964610559</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.46693758418824</v>
       </c>
       <c r="N6">
-        <v>6.192886643305323</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.86417518781029</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.29231508478024</v>
+        <v>6.371003891838085</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.6451264136784</v>
+      </c>
+      <c r="R6">
+        <v>13.07905731544545</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.22133968354622</v>
+        <v>18.50493805387825</v>
       </c>
       <c r="C7">
-        <v>12.75012660992084</v>
+        <v>13.05825313199733</v>
       </c>
       <c r="D7">
-        <v>4.270299361993601</v>
+        <v>4.234297330932579</v>
       </c>
       <c r="E7">
-        <v>7.93606871572476</v>
+        <v>7.877082359829651</v>
       </c>
       <c r="F7">
-        <v>25.32591371559493</v>
+        <v>23.96654856665809</v>
       </c>
       <c r="G7">
-        <v>35.9355552792357</v>
+        <v>33.20578978125302</v>
       </c>
       <c r="H7">
-        <v>2.587839890126291</v>
+        <v>2.478454295973691</v>
       </c>
       <c r="I7">
-        <v>3.189790015293344</v>
+        <v>3.05127998731398</v>
       </c>
       <c r="J7">
-        <v>11.71744596601422</v>
+        <v>11.49046490206985</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.89588927152921</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.5129134948807</v>
       </c>
       <c r="N7">
-        <v>6.249177675540964</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>12.05323805057214</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.24602585071132</v>
+        <v>6.425083249096282</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.82325015920455</v>
+      </c>
+      <c r="R7">
+        <v>13.0354573746208</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.02865446723192</v>
+        <v>20.18809281370448</v>
       </c>
       <c r="C8">
-        <v>13.72228538491975</v>
+        <v>14.14376073518826</v>
       </c>
       <c r="D8">
-        <v>4.308357255934169</v>
+        <v>4.312517202858299</v>
       </c>
       <c r="E8">
-        <v>8.160138471568509</v>
+        <v>8.07046898319679</v>
       </c>
       <c r="F8">
-        <v>26.63899754637423</v>
+        <v>25.02734507121368</v>
       </c>
       <c r="G8">
-        <v>38.03323508251046</v>
+        <v>35.09891088564983</v>
       </c>
       <c r="H8">
-        <v>2.271919890702624</v>
+        <v>2.195922313825616</v>
       </c>
       <c r="I8">
-        <v>2.907943031440286</v>
+        <v>2.810242792649729</v>
       </c>
       <c r="J8">
-        <v>12.00061776557891</v>
+        <v>11.62471589240649</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.87411315120208</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.79415772176507</v>
       </c>
       <c r="N8">
-        <v>6.48986850432649</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.86119436375241</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.04689657890592</v>
+        <v>6.658145071061172</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.59188506668739</v>
+      </c>
+      <c r="R8">
+        <v>12.84982743040037</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.21717302225668</v>
+        <v>23.18179231058641</v>
       </c>
       <c r="C9">
-        <v>15.44292341981294</v>
+        <v>16.09330404074069</v>
       </c>
       <c r="D9">
-        <v>4.373119232490238</v>
+        <v>4.448848025541839</v>
       </c>
       <c r="E9">
-        <v>8.578529850357732</v>
+        <v>8.433439943360346</v>
       </c>
       <c r="F9">
-        <v>29.18294101524295</v>
+        <v>27.18265428749275</v>
       </c>
       <c r="G9">
-        <v>42.05666379065889</v>
+        <v>38.49550581981529</v>
       </c>
       <c r="H9">
-        <v>1.688571190322877</v>
+        <v>1.672952250155526</v>
       </c>
       <c r="I9">
-        <v>2.574053734680569</v>
+        <v>2.606501191015453</v>
       </c>
       <c r="J9">
-        <v>12.59033822238121</v>
+        <v>12.10359559481741</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.8792211403984</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.55252264991001</v>
       </c>
       <c r="N9">
-        <v>6.935310451929971</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.32847119150479</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.6678454030709</v>
+        <v>7.093611347468531</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.99749214290962</v>
+      </c>
+      <c r="R9">
+        <v>12.50115258264189</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.2721599339283</v>
+        <v>25.09721959563676</v>
       </c>
       <c r="C10">
-        <v>16.67301270751546</v>
+        <v>17.41288713399977</v>
       </c>
       <c r="D10">
-        <v>4.4258775832116</v>
+        <v>4.568808886838811</v>
       </c>
       <c r="E10">
-        <v>8.858664534391014</v>
+        <v>8.680962268244658</v>
       </c>
       <c r="F10">
-        <v>30.78592302870959</v>
+        <v>28.40940054736121</v>
       </c>
       <c r="G10">
-        <v>44.52237494587475</v>
+        <v>40.96794697977334</v>
       </c>
       <c r="H10">
-        <v>1.823365145583846</v>
+        <v>1.794531798863329</v>
       </c>
       <c r="I10">
-        <v>2.923102114359033</v>
+        <v>2.904791786724887</v>
       </c>
       <c r="J10">
-        <v>12.95540337344021</v>
+        <v>12.08803298442071</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.72321385917627</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.02195628616626</v>
       </c>
       <c r="N10">
-        <v>7.151022865135936</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.21358490488536</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.38095296063019</v>
+        <v>7.299125500582139</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.82358671835341</v>
+      </c>
+      <c r="R10">
+        <v>12.25059253493578</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.54980190890806</v>
+        <v>25.3181122886686</v>
       </c>
       <c r="C11">
-        <v>17.67449581824508</v>
+        <v>18.30017046231884</v>
       </c>
       <c r="D11">
-        <v>4.548807214273785</v>
+        <v>4.776369466600302</v>
       </c>
       <c r="E11">
-        <v>9.051669872383741</v>
+        <v>8.920121142423785</v>
       </c>
       <c r="F11">
-        <v>29.97000994854509</v>
+        <v>27.40781184801075</v>
       </c>
       <c r="G11">
-        <v>42.89850497981807</v>
+        <v>40.33906080955295</v>
       </c>
       <c r="H11">
-        <v>2.778251925008894</v>
+        <v>2.748991761005123</v>
       </c>
       <c r="I11">
-        <v>3.023024281114817</v>
+        <v>2.988947989572626</v>
       </c>
       <c r="J11">
-        <v>12.54118772589687</v>
+        <v>11.1141029096622</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.8644403716789</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.34443231034541</v>
       </c>
       <c r="N11">
-        <v>6.463828856462619</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.68309529867553</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.19516207888118</v>
+        <v>6.581836522921781</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.26895240420078</v>
+      </c>
+      <c r="R11">
+        <v>12.17816265743367</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.38236174358047</v>
+        <v>25.16710805100868</v>
       </c>
       <c r="C12">
-        <v>18.25266820349657</v>
+        <v>18.78881850950454</v>
       </c>
       <c r="D12">
-        <v>4.662778089525618</v>
+        <v>4.936261439322038</v>
       </c>
       <c r="E12">
-        <v>9.393902917487555</v>
+        <v>9.295044356697662</v>
       </c>
       <c r="F12">
-        <v>28.98182301694619</v>
+        <v>26.41758711888738</v>
       </c>
       <c r="G12">
-        <v>41.07958411899943</v>
+        <v>39.12493148058957</v>
       </c>
       <c r="H12">
-        <v>4.081141251743953</v>
+        <v>4.06042371988691</v>
       </c>
       <c r="I12">
-        <v>3.035476214790308</v>
+        <v>2.998106093154875</v>
       </c>
       <c r="J12">
-        <v>12.12761643440182</v>
+        <v>10.50696487426443</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.25094793856655</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.72929216916291</v>
       </c>
       <c r="N12">
-        <v>5.913611249947577</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.05063493454771</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.14304937348554</v>
+        <v>6.006297980966176</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.64013697422097</v>
+      </c>
+      <c r="R12">
+        <v>12.20918398954359</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.82855582200336</v>
+        <v>24.70873591112134</v>
       </c>
       <c r="C13">
-        <v>18.58089319903535</v>
+        <v>19.06422246206945</v>
       </c>
       <c r="D13">
-        <v>4.775987481902165</v>
+        <v>5.058403435590462</v>
       </c>
       <c r="E13">
-        <v>9.842260331397194</v>
+        <v>9.779776276692221</v>
       </c>
       <c r="F13">
-        <v>27.71714633951718</v>
+        <v>25.35189055494718</v>
       </c>
       <c r="G13">
-        <v>38.84731693062997</v>
+        <v>37.07952451129252</v>
       </c>
       <c r="H13">
-        <v>5.454225661994786</v>
+        <v>5.464622420205123</v>
       </c>
       <c r="I13">
-        <v>2.984862303685979</v>
+        <v>2.956747296559419</v>
       </c>
       <c r="J13">
-        <v>11.66233704647103</v>
+        <v>10.21821089529161</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.76103412726527</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.11141116528358</v>
       </c>
       <c r="N13">
-        <v>5.455640741030954</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.2766276016193</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.1826083402604</v>
+        <v>5.526628958968391</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.8997542642144</v>
+      </c>
+      <c r="R13">
+        <v>12.30289932711355</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.25245799334635</v>
+        <v>24.2360144385315</v>
       </c>
       <c r="C14">
-        <v>18.70822421748052</v>
+        <v>19.17007969449946</v>
       </c>
       <c r="D14">
-        <v>4.857274269400988</v>
+        <v>5.127109274629021</v>
       </c>
       <c r="E14">
-        <v>10.21889320356915</v>
+        <v>10.18565634927244</v>
       </c>
       <c r="F14">
-        <v>26.68260848872864</v>
+        <v>24.54759675802851</v>
       </c>
       <c r="G14">
-        <v>37.05268189836454</v>
+        <v>35.23618671951667</v>
       </c>
       <c r="H14">
-        <v>6.485976573700588</v>
+        <v>6.492585117536863</v>
       </c>
       <c r="I14">
-        <v>2.922204286388517</v>
+        <v>2.906500185395583</v>
       </c>
       <c r="J14">
-        <v>11.30792271955845</v>
+        <v>10.14063880427288</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.46304231052885</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.67262176158597</v>
       </c>
       <c r="N14">
-        <v>5.205752138542887</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.66049313115344</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.25477689838113</v>
+        <v>5.263569993976804</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.32047882540948</v>
+      </c>
+      <c r="R14">
+        <v>12.39503197821869</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.0196983290149</v>
+        <v>24.04462818060885</v>
       </c>
       <c r="C15">
-        <v>18.69253069940423</v>
+        <v>19.15610018607959</v>
       </c>
       <c r="D15">
-        <v>4.875266104836171</v>
+        <v>5.134830960873477</v>
       </c>
       <c r="E15">
-        <v>10.30396367827875</v>
+        <v>10.28136267173018</v>
       </c>
       <c r="F15">
-        <v>26.35719933307938</v>
+        <v>24.31782752245071</v>
       </c>
       <c r="G15">
-        <v>36.50061072178977</v>
+        <v>34.59670337821775</v>
       </c>
       <c r="H15">
-        <v>6.725526447984468</v>
+        <v>6.730863416356107</v>
       </c>
       <c r="I15">
-        <v>2.894211061151319</v>
+        <v>2.884789216978952</v>
       </c>
       <c r="J15">
-        <v>11.20647296236192</v>
+        <v>10.17169488021572</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.40393014851279</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.5578517469458</v>
       </c>
       <c r="N15">
-        <v>5.154266624899845</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.4774298049395</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.28660950135464</v>
+        <v>5.210326307064426</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.15216236842718</v>
+      </c>
+      <c r="R15">
+        <v>12.4254991408177</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.21575780960219</v>
+        <v>23.37529047548949</v>
       </c>
       <c r="C16">
-        <v>18.1559325893395</v>
+        <v>18.67478948103511</v>
       </c>
       <c r="D16">
-        <v>4.827719145448468</v>
+        <v>5.028288320142177</v>
       </c>
       <c r="E16">
-        <v>10.09448794467958</v>
+        <v>10.10388498214793</v>
       </c>
       <c r="F16">
-        <v>25.83561399345486</v>
+        <v>24.12111651796157</v>
       </c>
       <c r="G16">
-        <v>35.72380809122306</v>
+        <v>33.19801660897181</v>
       </c>
       <c r="H16">
-        <v>6.524861115268664</v>
+        <v>6.525130287206807</v>
       </c>
       <c r="I16">
-        <v>2.757758230940859</v>
+        <v>2.774095124626721</v>
       </c>
       <c r="J16">
-        <v>11.1226262767671</v>
+        <v>10.62875987109799</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.58370093659365</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.55002192220109</v>
       </c>
       <c r="N16">
-        <v>5.141875661732239</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.21592064398688</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.38843774243602</v>
+        <v>5.212106803907444</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.93815973737879</v>
+      </c>
+      <c r="R16">
+        <v>12.47660243091674</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.90771578915066</v>
+        <v>23.10220949012029</v>
       </c>
       <c r="C17">
-        <v>17.66459821935375</v>
+        <v>18.22317844647757</v>
       </c>
       <c r="D17">
-        <v>4.746447859392243</v>
+        <v>4.916021724910821</v>
       </c>
       <c r="E17">
-        <v>9.711294199069515</v>
+        <v>9.723047188290929</v>
       </c>
       <c r="F17">
-        <v>26.00499466598956</v>
+        <v>24.3812265285112</v>
       </c>
       <c r="G17">
-        <v>36.1189808703352</v>
+        <v>33.24311523690769</v>
       </c>
       <c r="H17">
-        <v>5.792797436665964</v>
+        <v>5.789891713612761</v>
       </c>
       <c r="I17">
-        <v>2.686406657069719</v>
+        <v>2.715191288588927</v>
       </c>
       <c r="J17">
-        <v>11.25013411088855</v>
+        <v>10.96306083644052</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.8795846039735</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.76347506489454</v>
       </c>
       <c r="N17">
-        <v>5.252232653464923</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.35355773720498</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.42800160218083</v>
+        <v>5.339482800242657</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.0877432241036</v>
+      </c>
+      <c r="R17">
+        <v>12.47561267568227</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.02125311877526</v>
+        <v>23.18341366319792</v>
       </c>
       <c r="C18">
-        <v>17.14923488691811</v>
+        <v>17.75658150132872</v>
       </c>
       <c r="D18">
-        <v>4.633679614255278</v>
+        <v>4.783185905846159</v>
       </c>
       <c r="E18">
-        <v>9.221061909768867</v>
+        <v>9.208975865457083</v>
       </c>
       <c r="F18">
-        <v>26.81538161456903</v>
+        <v>25.13682112716446</v>
       </c>
       <c r="G18">
-        <v>37.61830425375179</v>
+        <v>34.43808592109983</v>
       </c>
       <c r="H18">
-        <v>4.540578022142727</v>
+        <v>4.53594293631472</v>
       </c>
       <c r="I18">
-        <v>2.661645944012225</v>
+        <v>2.692226917123084</v>
       </c>
       <c r="J18">
-        <v>11.58291403312015</v>
+        <v>11.33898738040105</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.35245593213755</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.22377076733001</v>
       </c>
       <c r="N18">
-        <v>5.552980325548508</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.85665154174395</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.43666486133173</v>
+        <v>5.661018911531307</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.58025746050891</v>
+      </c>
+      <c r="R18">
+        <v>12.43843133703196</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.43070727536567</v>
+        <v>23.51514411955467</v>
       </c>
       <c r="C19">
-        <v>16.70077589585786</v>
+        <v>17.36592847779058</v>
       </c>
       <c r="D19">
-        <v>4.5252283792707</v>
+        <v>4.65860441922664</v>
       </c>
       <c r="E19">
-        <v>8.836933200406026</v>
+        <v>8.776011124865226</v>
       </c>
       <c r="F19">
-        <v>27.9971161775159</v>
+        <v>26.17628235216488</v>
       </c>
       <c r="G19">
-        <v>39.74433907706955</v>
+        <v>36.2649575050462</v>
       </c>
       <c r="H19">
-        <v>3.046961376314875</v>
+        <v>3.042707226801461</v>
       </c>
       <c r="I19">
-        <v>2.688459191333573</v>
+        <v>2.71495358437709</v>
       </c>
       <c r="J19">
-        <v>12.02931911854326</v>
+        <v>11.73960162511129</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.91444783994915</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.82115971294398</v>
       </c>
       <c r="N19">
-        <v>6.073172966468769</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.59720996106118</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.44796102449428</v>
+        <v>6.202220430392551</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.29652868706133</v>
+      </c>
+      <c r="R19">
+        <v>12.39706881912862</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.67533731525178</v>
+        <v>24.57938867575161</v>
       </c>
       <c r="C20">
-        <v>16.41300777048662</v>
+        <v>17.16314320512318</v>
       </c>
       <c r="D20">
-        <v>4.417943566491739</v>
+        <v>4.539927053199682</v>
       </c>
       <c r="E20">
-        <v>8.779517218386419</v>
+        <v>8.614174294758413</v>
       </c>
       <c r="F20">
-        <v>30.25007388934863</v>
+        <v>28.05677247869088</v>
       </c>
       <c r="G20">
-        <v>43.6710429675565</v>
+        <v>39.88783706504711</v>
       </c>
       <c r="H20">
-        <v>1.717007177599717</v>
+        <v>1.702168136643083</v>
       </c>
       <c r="I20">
-        <v>2.841453671980789</v>
+        <v>2.84272225429967</v>
       </c>
       <c r="J20">
-        <v>12.81411566311245</v>
+        <v>12.23523032410755</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.73015270385563</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.85762261007167</v>
       </c>
       <c r="N20">
-        <v>7.095727107851402</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.96312391836205</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.44861976712968</v>
+        <v>7.247637671259017</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.6013034185842</v>
+      </c>
+      <c r="R20">
+        <v>12.31501647722093</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.32946500692124</v>
+        <v>25.93608125137558</v>
       </c>
       <c r="C21">
-        <v>17.2354983111152</v>
+        <v>17.89772484712315</v>
       </c>
       <c r="D21">
-        <v>4.442369960075269</v>
+        <v>4.644787679597195</v>
       </c>
       <c r="E21">
-        <v>9.012900924653424</v>
+        <v>8.80072814284091</v>
       </c>
       <c r="F21">
-        <v>31.74700942505418</v>
+        <v>28.82978857914092</v>
       </c>
       <c r="G21">
-        <v>46.03473642492201</v>
+        <v>43.4251727714276</v>
       </c>
       <c r="H21">
-        <v>2.024045759188955</v>
+        <v>1.963178765246322</v>
       </c>
       <c r="I21">
-        <v>3.113496255351783</v>
+        <v>3.062758243992322</v>
       </c>
       <c r="J21">
-        <v>13.20515173787278</v>
+        <v>11.37407394645872</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.58546038073495</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.2039176782665</v>
       </c>
       <c r="N21">
-        <v>7.405060909551472</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.78288072636818</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.24635149948156</v>
+        <v>7.546282097236857</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.30998412369478</v>
+      </c>
+      <c r="R21">
+        <v>12.12685156707965</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3500681382391</v>
+        <v>26.76471535949158</v>
       </c>
       <c r="C22">
-        <v>17.76180416840633</v>
+        <v>18.35453489613274</v>
       </c>
       <c r="D22">
-        <v>4.45984531776435</v>
+        <v>4.719836381468161</v>
       </c>
       <c r="E22">
-        <v>9.159046122538802</v>
+        <v>8.922453024742396</v>
       </c>
       <c r="F22">
-        <v>32.66339299540822</v>
+        <v>29.26518711144232</v>
       </c>
       <c r="G22">
-        <v>47.46700863236282</v>
+        <v>45.70896395968079</v>
       </c>
       <c r="H22">
-        <v>2.217570117107381</v>
+        <v>2.127221722968733</v>
       </c>
       <c r="I22">
-        <v>3.282241971314037</v>
+        <v>3.196730275194197</v>
       </c>
       <c r="J22">
-        <v>13.44441338214048</v>
+        <v>10.75680461143657</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.4627925072342</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.40564040377258</v>
       </c>
       <c r="N22">
-        <v>7.55229810660529</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.25495556038059</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.11198809557368</v>
+        <v>7.685521446278054</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.70849462101695</v>
+      </c>
+      <c r="R22">
+        <v>12.00745653287536</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.83055857370546</v>
+        <v>26.3653596655444</v>
       </c>
       <c r="C23">
-        <v>17.46310841078492</v>
+        <v>18.11438040626267</v>
       </c>
       <c r="D23">
-        <v>4.448586257457452</v>
+        <v>4.671129842118646</v>
       </c>
       <c r="E23">
-        <v>9.083254934951995</v>
+        <v>8.859767103525176</v>
       </c>
       <c r="F23">
-        <v>32.21621094857097</v>
+        <v>29.1275623155816</v>
       </c>
       <c r="G23">
-        <v>46.77703480528289</v>
+        <v>44.39317464558093</v>
       </c>
       <c r="H23">
-        <v>2.116033494720755</v>
+        <v>2.042536247914559</v>
       </c>
       <c r="I23">
-        <v>3.189162248723524</v>
+        <v>3.121893978297669</v>
       </c>
       <c r="J23">
-        <v>13.33223333848064</v>
+        <v>11.22336173911506</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.57260764763107</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.3484837690011</v>
       </c>
       <c r="N23">
-        <v>7.472133734364272</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.0111753469241</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.18626994687435</v>
+        <v>7.610500816378803</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.51181991074555</v>
+      </c>
+      <c r="R23">
+        <v>12.07019512723831</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.73777763627464</v>
+        <v>24.63439609265431</v>
       </c>
       <c r="C24">
-        <v>16.32768836420589</v>
+        <v>17.08256627280021</v>
       </c>
       <c r="D24">
-        <v>4.407442718014395</v>
+        <v>4.523831007454441</v>
       </c>
       <c r="E24">
-        <v>8.789569557761185</v>
+        <v>8.616629429772104</v>
       </c>
       <c r="F24">
-        <v>30.42736744077176</v>
+        <v>28.22050396908203</v>
       </c>
       <c r="G24">
-        <v>43.99149928946971</v>
+        <v>40.16459525131163</v>
       </c>
       <c r="H24">
-        <v>1.72260693149491</v>
+        <v>1.707215044663128</v>
       </c>
       <c r="I24">
-        <v>2.836552805703136</v>
+        <v>2.834981497583776</v>
       </c>
       <c r="J24">
-        <v>12.88382239627602</v>
+        <v>12.30573082422791</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.83141415807093</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.96032519064029</v>
       </c>
       <c r="N24">
-        <v>7.165061401991887</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.04466606478367</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.46389711510558</v>
+        <v>7.318894244454603</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.68046096841528</v>
+      </c>
+      <c r="R24">
+        <v>12.3188436673517</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.35994427702387</v>
+        <v>22.38788388003026</v>
       </c>
       <c r="C25">
-        <v>15.02705373857417</v>
+        <v>15.63365286952081</v>
       </c>
       <c r="D25">
-        <v>4.359193241061921</v>
+        <v>4.414898228840017</v>
       </c>
       <c r="E25">
-        <v>8.464326883786381</v>
+        <v>8.33552212711127</v>
       </c>
       <c r="F25">
-        <v>28.43877353072438</v>
+        <v>26.57855073630564</v>
       </c>
       <c r="G25">
-        <v>40.87141351391779</v>
+        <v>37.37769076586665</v>
       </c>
       <c r="H25">
-        <v>1.844871134796832</v>
+        <v>1.81200269498439</v>
       </c>
       <c r="I25">
-        <v>2.53835795894876</v>
+        <v>2.500232940332083</v>
       </c>
       <c r="J25">
-        <v>12.40477354071454</v>
+        <v>12.02835157177647</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.85617373498493</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.30843330489676</v>
       </c>
       <c r="N25">
-        <v>6.820511828984303</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.93468735147325</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.76521498764146</v>
+        <v>6.981733440975852</v>
       </c>
       <c r="Q25">
+        <v>13.62575954058696</v>
+      </c>
+      <c r="R25">
+        <v>12.59348332395083</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
